--- a/tests/Tests Template .xlsx
+++ b/tests/Tests Template .xlsx
@@ -442,77 +442,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,147 +796,149 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="44.875" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="45.5" customWidth="1"/>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="45.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:7" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
